--- a/example1.xlsx
+++ b/example1.xlsx
@@ -1,44 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\py\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2C0535-C73E-4517-8099-8BFFF161A678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="1065" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pdata2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="pdata" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="data2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="pdata21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="pdata" sheetId="1" r:id="rId1"/>
+    <sheet name="data2" sheetId="2" r:id="rId2"/>
+    <sheet name="data22" sheetId="3" r:id="rId3"/>
+    <sheet name="pdata2" sheetId="4" r:id="rId4"/>
+    <sheet name="pdata21" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Ture</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>data1</t>
+  </si>
+  <si>
+    <t>data2</t>
+  </si>
+  <si>
+    <t>苦短</t>
+  </si>
+  <si>
+    <t>rensehng</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color rgb="00FF0000"/>
-      <sz val="24"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,19 +105,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -354,180 +414,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="30"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Number</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>50</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>5.37</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>30.4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>10.89</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>60</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>25.5</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ture</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>5.37</v>
+      </c>
+      <c r="B17">
+        <v>30.4</v>
+      </c>
+      <c r="C17">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>25.5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/example1.xlsx
+++ b/example1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2C0535-C73E-4517-8099-8BFFF161A678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D94FE13-7EA7-43DD-84ED-BFBEC8D657E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="4140" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pdata" sheetId="1" r:id="rId1"/>
@@ -24,60 +24,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Ture</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>data1</t>
-  </si>
-  <si>
-    <t>data2</t>
-  </si>
-  <si>
-    <t>苦短</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>rensehng</t>
+  </si>
+  <si>
+    <t>天道酬勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -107,12 +97,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -415,24 +401,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -440,210 +433,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="1" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="C3">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>5.37</v>
-      </c>
-      <c r="B8">
-        <v>30.4</v>
-      </c>
-      <c r="C8">
-        <v>10.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9">
-        <v>25.5</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>5.37</v>
-      </c>
-      <c r="B17">
-        <v>30.4</v>
-      </c>
-      <c r="C17">
-        <v>10.89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>60</v>
-      </c>
-      <c r="B18">
-        <v>25.5</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -655,7 +589,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -668,7 +602,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -681,7 +615,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>